--- a/data.xlsx
+++ b/data.xlsx
@@ -1,80 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardisat\Documents\Scriptorium\Python\Discord bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5520" windowWidth="14370" windowHeight="14010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="13800" windowWidth="14370" windowHeight="14010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dashbooard" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="ВстроеннаяВременнаяШкала_Date">#N/A</definedName>
+    <definedName name="ВстроеннаяВременнаяШкала_Date1">#N/A</definedName>
+    <definedName name="Срез_Server_Name">#N/A</definedName>
+    <definedName name="Срез_Server_Name1">#N/A</definedName>
+    <definedName name="Срез_Server_Name2">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="36" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Server Name</t>
-  </si>
-  <si>
-    <t>Server ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>"GM" Amount</t>
-  </si>
-  <si>
-    <t>Members Amount</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,38 +75,2483 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="207">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <pivotSource>
+    <name>[data.xlsx]Dashbooard!Сводная таблица1</name>
+    <fmtId val="13"/>
+  </pivotSource>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout/>
+      <overlay val="0"/>
+    </title>
+    <pivotFmts>
+      <pivotFmt>
+        <idx val="0"/>
+        <spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="1"/>
+        <spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="circle"/>
+          <size val="5"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="2"/>
+        <spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="circle"/>
+          <size val="5"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="3"/>
+        <spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="circle"/>
+          <size val="5"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="4"/>
+        <spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="circle"/>
+          <size val="5"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="5"/>
+        <spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <marker>
+          <symbol val="circle"/>
+          <size val="5"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+    </pivotFmts>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="stacked"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Dashbooard!$C$4</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Итог</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Dashbooard!$B$5:$B$8</f>
+              <strCache>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>27.июн</v>
+                </pt>
+                <pt idx="1">
+                  <v>28.июн</v>
+                </pt>
+                <pt idx="2">
+                  <v>29.июн</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Dashbooard!$C$5:$C$8</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.346</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.62</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="749261311"/>
+        <axId val="749272543"/>
+      </lineChart>
+      <catAx>
+        <axId val="749261311"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="749272543"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="749272543"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="749261311"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="zero"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>419100</colOff>
+      <row>1</row>
+      <rowOff>9525</rowOff>
+    </from>
+    <to>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>161925</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="Дмитрий" refreshedDate="44741.1257675926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="All"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Date" uniqueList="1" numFmtId="14" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="3" containsDate="1" containsNonDate="0" containsSemiMixedTypes="0" containsString="0" minDate="2022-06-27T00:00:00" maxDate="2022-06-30T00:00:00">
+        <d v="2022-06-27T00:00:00"/>
+        <d v="2022-06-28T00:00:00"/>
+        <d v="2022-06-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="6" base="0">
+        <rangePr autoStart="1" autoEnd="1" groupBy="days" startDate="2022-06-27T00:00:00" endDate="2022-06-30T00:00:00" groupInterval="1"/>
+        <groupItems count="368">
+          <s v="&lt;27.06.2022"/>
+          <s v="01.янв"/>
+          <s v="02.янв"/>
+          <s v="03.янв"/>
+          <s v="04.янв"/>
+          <s v="05.янв"/>
+          <s v="06.янв"/>
+          <s v="07.янв"/>
+          <s v="08.янв"/>
+          <s v="09.янв"/>
+          <s v="10.янв"/>
+          <s v="11.янв"/>
+          <s v="12.янв"/>
+          <s v="13.янв"/>
+          <s v="14.янв"/>
+          <s v="15.янв"/>
+          <s v="16.янв"/>
+          <s v="17.янв"/>
+          <s v="18.янв"/>
+          <s v="19.янв"/>
+          <s v="20.янв"/>
+          <s v="21.янв"/>
+          <s v="22.янв"/>
+          <s v="23.янв"/>
+          <s v="24.янв"/>
+          <s v="25.янв"/>
+          <s v="26.янв"/>
+          <s v="27.янв"/>
+          <s v="28.янв"/>
+          <s v="29.янв"/>
+          <s v="30.янв"/>
+          <s v="31.янв"/>
+          <s v="01.фев"/>
+          <s v="02.фев"/>
+          <s v="03.фев"/>
+          <s v="04.фев"/>
+          <s v="05.фев"/>
+          <s v="06.фев"/>
+          <s v="07.фев"/>
+          <s v="08.фев"/>
+          <s v="09.фев"/>
+          <s v="10.фев"/>
+          <s v="11.фев"/>
+          <s v="12.фев"/>
+          <s v="13.фев"/>
+          <s v="14.фев"/>
+          <s v="15.фев"/>
+          <s v="16.фев"/>
+          <s v="17.фев"/>
+          <s v="18.фев"/>
+          <s v="19.фев"/>
+          <s v="20.фев"/>
+          <s v="21.фев"/>
+          <s v="22.фев"/>
+          <s v="23.фев"/>
+          <s v="24.фев"/>
+          <s v="25.фев"/>
+          <s v="26.фев"/>
+          <s v="27.фев"/>
+          <s v="28.фев"/>
+          <s v="29.фев"/>
+          <s v="01.мар"/>
+          <s v="02.мар"/>
+          <s v="03.мар"/>
+          <s v="04.мар"/>
+          <s v="05.мар"/>
+          <s v="06.мар"/>
+          <s v="07.мар"/>
+          <s v="08.мар"/>
+          <s v="09.мар"/>
+          <s v="10.мар"/>
+          <s v="11.мар"/>
+          <s v="12.мар"/>
+          <s v="13.мар"/>
+          <s v="14.мар"/>
+          <s v="15.мар"/>
+          <s v="16.мар"/>
+          <s v="17.мар"/>
+          <s v="18.мар"/>
+          <s v="19.мар"/>
+          <s v="20.мар"/>
+          <s v="21.мар"/>
+          <s v="22.мар"/>
+          <s v="23.мар"/>
+          <s v="24.мар"/>
+          <s v="25.мар"/>
+          <s v="26.мар"/>
+          <s v="27.мар"/>
+          <s v="28.мар"/>
+          <s v="29.мар"/>
+          <s v="30.мар"/>
+          <s v="31.мар"/>
+          <s v="01.апр"/>
+          <s v="02.апр"/>
+          <s v="03.апр"/>
+          <s v="04.апр"/>
+          <s v="05.апр"/>
+          <s v="06.апр"/>
+          <s v="07.апр"/>
+          <s v="08.апр"/>
+          <s v="09.апр"/>
+          <s v="10.апр"/>
+          <s v="11.апр"/>
+          <s v="12.апр"/>
+          <s v="13.апр"/>
+          <s v="14.апр"/>
+          <s v="15.апр"/>
+          <s v="16.апр"/>
+          <s v="17.апр"/>
+          <s v="18.апр"/>
+          <s v="19.апр"/>
+          <s v="20.апр"/>
+          <s v="21.апр"/>
+          <s v="22.апр"/>
+          <s v="23.апр"/>
+          <s v="24.апр"/>
+          <s v="25.апр"/>
+          <s v="26.апр"/>
+          <s v="27.апр"/>
+          <s v="28.апр"/>
+          <s v="29.апр"/>
+          <s v="30.апр"/>
+          <s v="01.май"/>
+          <s v="02.май"/>
+          <s v="03.май"/>
+          <s v="04.май"/>
+          <s v="05.май"/>
+          <s v="06.май"/>
+          <s v="07.май"/>
+          <s v="08.май"/>
+          <s v="09.май"/>
+          <s v="10.май"/>
+          <s v="11.май"/>
+          <s v="12.май"/>
+          <s v="13.май"/>
+          <s v="14.май"/>
+          <s v="15.май"/>
+          <s v="16.май"/>
+          <s v="17.май"/>
+          <s v="18.май"/>
+          <s v="19.май"/>
+          <s v="20.май"/>
+          <s v="21.май"/>
+          <s v="22.май"/>
+          <s v="23.май"/>
+          <s v="24.май"/>
+          <s v="25.май"/>
+          <s v="26.май"/>
+          <s v="27.май"/>
+          <s v="28.май"/>
+          <s v="29.май"/>
+          <s v="30.май"/>
+          <s v="31.май"/>
+          <s v="01.июн"/>
+          <s v="02.июн"/>
+          <s v="03.июн"/>
+          <s v="04.июн"/>
+          <s v="05.июн"/>
+          <s v="06.июн"/>
+          <s v="07.июн"/>
+          <s v="08.июн"/>
+          <s v="09.июн"/>
+          <s v="10.июн"/>
+          <s v="11.июн"/>
+          <s v="12.июн"/>
+          <s v="13.июн"/>
+          <s v="14.июн"/>
+          <s v="15.июн"/>
+          <s v="16.июн"/>
+          <s v="17.июн"/>
+          <s v="18.июн"/>
+          <s v="19.июн"/>
+          <s v="20.июн"/>
+          <s v="21.июн"/>
+          <s v="22.июн"/>
+          <s v="23.июн"/>
+          <s v="24.июн"/>
+          <s v="25.июн"/>
+          <s v="26.июн"/>
+          <s v="27.июн"/>
+          <s v="28.июн"/>
+          <s v="29.июн"/>
+          <s v="30.июн"/>
+          <s v="01.июл"/>
+          <s v="02.июл"/>
+          <s v="03.июл"/>
+          <s v="04.июл"/>
+          <s v="05.июл"/>
+          <s v="06.июл"/>
+          <s v="07.июл"/>
+          <s v="08.июл"/>
+          <s v="09.июл"/>
+          <s v="10.июл"/>
+          <s v="11.июл"/>
+          <s v="12.июл"/>
+          <s v="13.июл"/>
+          <s v="14.июл"/>
+          <s v="15.июл"/>
+          <s v="16.июл"/>
+          <s v="17.июл"/>
+          <s v="18.июл"/>
+          <s v="19.июл"/>
+          <s v="20.июл"/>
+          <s v="21.июл"/>
+          <s v="22.июл"/>
+          <s v="23.июл"/>
+          <s v="24.июл"/>
+          <s v="25.июл"/>
+          <s v="26.июл"/>
+          <s v="27.июл"/>
+          <s v="28.июл"/>
+          <s v="29.июл"/>
+          <s v="30.июл"/>
+          <s v="31.июл"/>
+          <s v="01.авг"/>
+          <s v="02.авг"/>
+          <s v="03.авг"/>
+          <s v="04.авг"/>
+          <s v="05.авг"/>
+          <s v="06.авг"/>
+          <s v="07.авг"/>
+          <s v="08.авг"/>
+          <s v="09.авг"/>
+          <s v="10.авг"/>
+          <s v="11.авг"/>
+          <s v="12.авг"/>
+          <s v="13.авг"/>
+          <s v="14.авг"/>
+          <s v="15.авг"/>
+          <s v="16.авг"/>
+          <s v="17.авг"/>
+          <s v="18.авг"/>
+          <s v="19.авг"/>
+          <s v="20.авг"/>
+          <s v="21.авг"/>
+          <s v="22.авг"/>
+          <s v="23.авг"/>
+          <s v="24.авг"/>
+          <s v="25.авг"/>
+          <s v="26.авг"/>
+          <s v="27.авг"/>
+          <s v="28.авг"/>
+          <s v="29.авг"/>
+          <s v="30.авг"/>
+          <s v="31.авг"/>
+          <s v="01.сен"/>
+          <s v="02.сен"/>
+          <s v="03.сен"/>
+          <s v="04.сен"/>
+          <s v="05.сен"/>
+          <s v="06.сен"/>
+          <s v="07.сен"/>
+          <s v="08.сен"/>
+          <s v="09.сен"/>
+          <s v="10.сен"/>
+          <s v="11.сен"/>
+          <s v="12.сен"/>
+          <s v="13.сен"/>
+          <s v="14.сен"/>
+          <s v="15.сен"/>
+          <s v="16.сен"/>
+          <s v="17.сен"/>
+          <s v="18.сен"/>
+          <s v="19.сен"/>
+          <s v="20.сен"/>
+          <s v="21.сен"/>
+          <s v="22.сен"/>
+          <s v="23.сен"/>
+          <s v="24.сен"/>
+          <s v="25.сен"/>
+          <s v="26.сен"/>
+          <s v="27.сен"/>
+          <s v="28.сен"/>
+          <s v="29.сен"/>
+          <s v="30.сен"/>
+          <s v="01.окт"/>
+          <s v="02.окт"/>
+          <s v="03.окт"/>
+          <s v="04.окт"/>
+          <s v="05.окт"/>
+          <s v="06.окт"/>
+          <s v="07.окт"/>
+          <s v="08.окт"/>
+          <s v="09.окт"/>
+          <s v="10.окт"/>
+          <s v="11.окт"/>
+          <s v="12.окт"/>
+          <s v="13.окт"/>
+          <s v="14.окт"/>
+          <s v="15.окт"/>
+          <s v="16.окт"/>
+          <s v="17.окт"/>
+          <s v="18.окт"/>
+          <s v="19.окт"/>
+          <s v="20.окт"/>
+          <s v="21.окт"/>
+          <s v="22.окт"/>
+          <s v="23.окт"/>
+          <s v="24.окт"/>
+          <s v="25.окт"/>
+          <s v="26.окт"/>
+          <s v="27.окт"/>
+          <s v="28.окт"/>
+          <s v="29.окт"/>
+          <s v="30.окт"/>
+          <s v="31.окт"/>
+          <s v="01.ноя"/>
+          <s v="02.ноя"/>
+          <s v="03.ноя"/>
+          <s v="04.ноя"/>
+          <s v="05.ноя"/>
+          <s v="06.ноя"/>
+          <s v="07.ноя"/>
+          <s v="08.ноя"/>
+          <s v="09.ноя"/>
+          <s v="10.ноя"/>
+          <s v="11.ноя"/>
+          <s v="12.ноя"/>
+          <s v="13.ноя"/>
+          <s v="14.ноя"/>
+          <s v="15.ноя"/>
+          <s v="16.ноя"/>
+          <s v="17.ноя"/>
+          <s v="18.ноя"/>
+          <s v="19.ноя"/>
+          <s v="20.ноя"/>
+          <s v="21.ноя"/>
+          <s v="22.ноя"/>
+          <s v="23.ноя"/>
+          <s v="24.ноя"/>
+          <s v="25.ноя"/>
+          <s v="26.ноя"/>
+          <s v="27.ноя"/>
+          <s v="28.ноя"/>
+          <s v="29.ноя"/>
+          <s v="30.ноя"/>
+          <s v="01.дек"/>
+          <s v="02.дек"/>
+          <s v="03.дек"/>
+          <s v="04.дек"/>
+          <s v="05.дек"/>
+          <s v="06.дек"/>
+          <s v="07.дек"/>
+          <s v="08.дек"/>
+          <s v="09.дек"/>
+          <s v="10.дек"/>
+          <s v="11.дек"/>
+          <s v="12.дек"/>
+          <s v="13.дек"/>
+          <s v="14.дек"/>
+          <s v="15.дек"/>
+          <s v="16.дек"/>
+          <s v="17.дек"/>
+          <s v="18.дек"/>
+          <s v="19.дек"/>
+          <s v="20.дек"/>
+          <s v="21.дек"/>
+          <s v="22.дек"/>
+          <s v="23.дек"/>
+          <s v="24.дек"/>
+          <s v="25.дек"/>
+          <s v="26.дек"/>
+          <s v="27.дек"/>
+          <s v="28.дек"/>
+          <s v="29.дек"/>
+          <s v="30.дек"/>
+          <s v="31.дек"/>
+          <s v="&gt;30.06.2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Server Name" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="3">
+        <s v="прошмандовки ithub"/>
+        <s v="cybercat's playground"/>
+        <s v="2П1.20"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Server ID" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0"/>
+    </cacheField>
+    <cacheField name="Value" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="0" maxValue="0.924"/>
+    </cacheField>
+    <cacheField name="&quot;GM&quot; Amount" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Members Amount" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="10" maxValue="69"/>
+    </cacheField>
+    <cacheField name="Месяцы" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr autoStart="1" autoEnd="1" groupBy="months" startDate="2022-06-27T00:00:00" endDate="2022-06-30T00:00:00" groupInterval="1"/>
+        <groupItems count="14">
+          <s v="&lt;27.06.2022"/>
+          <s v="янв"/>
+          <s v="фев"/>
+          <s v="мар"/>
+          <s v="апр"/>
+          <s v="май"/>
+          <s v="июн"/>
+          <s v="июл"/>
+          <s v="авг"/>
+          <s v="сен"/>
+          <s v="окт"/>
+          <s v="ноя"/>
+          <s v="дек"/>
+          <s v="&gt;30.06.2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="750342355499876352"/>
+    <n v="0.4353"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="592958636087836672"/>
+    <n v="0.346"/>
+    <n v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="750431597349830656"/>
+    <n v="0.11"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="750342355499876352"/>
+    <n v="0.924"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="592958636087836672"/>
+    <n v="0.62"/>
+    <n v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="750431597349830656"/>
+    <n v="0.82"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="750342355499876352"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="592958636087836672"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="750431597349830656"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="36" dataOnRows="0" dataCaption="Значения" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="14" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" numFmtId="165" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="369">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="1" x="8"/>
+        <item t="data" sd="1" x="9"/>
+        <item t="data" sd="1" x="10"/>
+        <item t="data" sd="1" x="11"/>
+        <item t="data" sd="1" x="12"/>
+        <item t="data" sd="1" x="13"/>
+        <item t="data" sd="1" x="14"/>
+        <item t="data" sd="1" x="15"/>
+        <item t="data" sd="1" x="16"/>
+        <item t="data" sd="1" x="17"/>
+        <item t="data" sd="1" x="18"/>
+        <item t="data" sd="1" x="19"/>
+        <item t="data" sd="1" x="20"/>
+        <item t="data" sd="1" x="21"/>
+        <item t="data" sd="1" x="22"/>
+        <item t="data" sd="1" x="23"/>
+        <item t="data" sd="1" x="24"/>
+        <item t="data" sd="1" x="25"/>
+        <item t="data" sd="1" x="26"/>
+        <item t="data" sd="1" x="27"/>
+        <item t="data" sd="1" x="28"/>
+        <item t="data" sd="1" x="29"/>
+        <item t="data" sd="1" x="30"/>
+        <item t="data" sd="1" x="31"/>
+        <item t="data" sd="1" x="32"/>
+        <item t="data" sd="1" x="33"/>
+        <item t="data" sd="1" x="34"/>
+        <item t="data" sd="1" x="35"/>
+        <item t="data" sd="1" x="36"/>
+        <item t="data" sd="1" x="37"/>
+        <item t="data" sd="1" x="38"/>
+        <item t="data" sd="1" x="39"/>
+        <item t="data" sd="1" x="40"/>
+        <item t="data" sd="1" x="41"/>
+        <item t="data" sd="1" x="42"/>
+        <item t="data" sd="1" x="43"/>
+        <item t="data" sd="1" x="44"/>
+        <item t="data" sd="1" x="45"/>
+        <item t="data" sd="1" x="46"/>
+        <item t="data" sd="1" x="47"/>
+        <item t="data" sd="1" x="48"/>
+        <item t="data" sd="1" x="49"/>
+        <item t="data" sd="1" x="50"/>
+        <item t="data" sd="1" x="51"/>
+        <item t="data" sd="1" x="52"/>
+        <item t="data" sd="1" x="53"/>
+        <item t="data" sd="1" x="54"/>
+        <item t="data" sd="1" x="55"/>
+        <item t="data" sd="1" x="56"/>
+        <item t="data" sd="1" x="57"/>
+        <item t="data" sd="1" x="58"/>
+        <item t="data" sd="1" x="59"/>
+        <item t="data" sd="1" x="60"/>
+        <item t="data" sd="1" x="61"/>
+        <item t="data" sd="1" x="62"/>
+        <item t="data" sd="1" x="63"/>
+        <item t="data" sd="1" x="64"/>
+        <item t="data" sd="1" x="65"/>
+        <item t="data" sd="1" x="66"/>
+        <item t="data" sd="1" x="67"/>
+        <item t="data" sd="1" x="68"/>
+        <item t="data" sd="1" x="69"/>
+        <item t="data" sd="1" x="70"/>
+        <item t="data" sd="1" x="71"/>
+        <item t="data" sd="1" x="72"/>
+        <item t="data" sd="1" x="73"/>
+        <item t="data" sd="1" x="74"/>
+        <item t="data" sd="1" x="75"/>
+        <item t="data" sd="1" x="76"/>
+        <item t="data" sd="1" x="77"/>
+        <item t="data" sd="1" x="78"/>
+        <item t="data" sd="1" x="79"/>
+        <item t="data" sd="1" x="80"/>
+        <item t="data" sd="1" x="81"/>
+        <item t="data" sd="1" x="82"/>
+        <item t="data" sd="1" x="83"/>
+        <item t="data" sd="1" x="84"/>
+        <item t="data" sd="1" x="85"/>
+        <item t="data" sd="1" x="86"/>
+        <item t="data" sd="1" x="87"/>
+        <item t="data" sd="1" x="88"/>
+        <item t="data" sd="1" x="89"/>
+        <item t="data" sd="1" x="90"/>
+        <item t="data" sd="1" x="91"/>
+        <item t="data" sd="1" x="92"/>
+        <item t="data" sd="1" x="93"/>
+        <item t="data" sd="1" x="94"/>
+        <item t="data" sd="1" x="95"/>
+        <item t="data" sd="1" x="96"/>
+        <item t="data" sd="1" x="97"/>
+        <item t="data" sd="1" x="98"/>
+        <item t="data" sd="1" x="99"/>
+        <item t="data" sd="1" x="100"/>
+        <item t="data" sd="1" x="101"/>
+        <item t="data" sd="1" x="102"/>
+        <item t="data" sd="1" x="103"/>
+        <item t="data" sd="1" x="104"/>
+        <item t="data" sd="1" x="105"/>
+        <item t="data" sd="1" x="106"/>
+        <item t="data" sd="1" x="107"/>
+        <item t="data" sd="1" x="108"/>
+        <item t="data" sd="1" x="109"/>
+        <item t="data" sd="1" x="110"/>
+        <item t="data" sd="1" x="111"/>
+        <item t="data" sd="1" x="112"/>
+        <item t="data" sd="1" x="113"/>
+        <item t="data" sd="1" x="114"/>
+        <item t="data" sd="1" x="115"/>
+        <item t="data" sd="1" x="116"/>
+        <item t="data" sd="1" x="117"/>
+        <item t="data" sd="1" x="118"/>
+        <item t="data" sd="1" x="119"/>
+        <item t="data" sd="1" x="120"/>
+        <item t="data" sd="1" x="121"/>
+        <item t="data" sd="1" x="122"/>
+        <item t="data" sd="1" x="123"/>
+        <item t="data" sd="1" x="124"/>
+        <item t="data" sd="1" x="125"/>
+        <item t="data" sd="1" x="126"/>
+        <item t="data" sd="1" x="127"/>
+        <item t="data" sd="1" x="128"/>
+        <item t="data" sd="1" x="129"/>
+        <item t="data" sd="1" x="130"/>
+        <item t="data" sd="1" x="131"/>
+        <item t="data" sd="1" x="132"/>
+        <item t="data" sd="1" x="133"/>
+        <item t="data" sd="1" x="134"/>
+        <item t="data" sd="1" x="135"/>
+        <item t="data" sd="1" x="136"/>
+        <item t="data" sd="1" x="137"/>
+        <item t="data" sd="1" x="138"/>
+        <item t="data" sd="1" x="139"/>
+        <item t="data" sd="1" x="140"/>
+        <item t="data" sd="1" x="141"/>
+        <item t="data" sd="1" x="142"/>
+        <item t="data" sd="1" x="143"/>
+        <item t="data" sd="1" x="144"/>
+        <item t="data" sd="1" x="145"/>
+        <item t="data" sd="1" x="146"/>
+        <item t="data" sd="1" x="147"/>
+        <item t="data" sd="1" x="148"/>
+        <item t="data" sd="1" x="149"/>
+        <item t="data" sd="1" x="150"/>
+        <item t="data" sd="1" x="151"/>
+        <item t="data" sd="1" x="152"/>
+        <item t="data" sd="1" x="153"/>
+        <item t="data" sd="1" x="154"/>
+        <item t="data" sd="1" x="155"/>
+        <item t="data" sd="1" x="156"/>
+        <item t="data" sd="1" x="157"/>
+        <item t="data" sd="1" x="158"/>
+        <item t="data" sd="1" x="159"/>
+        <item t="data" sd="1" x="160"/>
+        <item t="data" sd="1" x="161"/>
+        <item t="data" sd="1" x="162"/>
+        <item t="data" sd="1" x="163"/>
+        <item t="data" sd="1" x="164"/>
+        <item t="data" sd="1" x="165"/>
+        <item t="data" sd="1" x="166"/>
+        <item t="data" sd="1" x="167"/>
+        <item t="data" sd="1" x="168"/>
+        <item t="data" sd="1" x="169"/>
+        <item t="data" sd="1" x="170"/>
+        <item t="data" sd="1" x="171"/>
+        <item t="data" sd="1" x="172"/>
+        <item t="data" sd="1" x="173"/>
+        <item t="data" sd="1" x="174"/>
+        <item t="data" sd="1" x="175"/>
+        <item t="data" sd="1" x="176"/>
+        <item t="data" sd="1" x="177"/>
+        <item t="data" sd="1" x="178"/>
+        <item t="data" sd="1" x="179"/>
+        <item t="data" sd="1" x="180"/>
+        <item t="data" sd="1" x="181"/>
+        <item t="data" sd="1" x="182"/>
+        <item t="data" sd="1" x="183"/>
+        <item t="data" sd="1" x="184"/>
+        <item t="data" sd="1" x="185"/>
+        <item t="data" sd="1" x="186"/>
+        <item t="data" sd="1" x="187"/>
+        <item t="data" sd="1" x="188"/>
+        <item t="data" sd="1" x="189"/>
+        <item t="data" sd="1" x="190"/>
+        <item t="data" sd="1" x="191"/>
+        <item t="data" sd="1" x="192"/>
+        <item t="data" sd="1" x="193"/>
+        <item t="data" sd="1" x="194"/>
+        <item t="data" sd="1" x="195"/>
+        <item t="data" sd="1" x="196"/>
+        <item t="data" sd="1" x="197"/>
+        <item t="data" sd="1" x="198"/>
+        <item t="data" sd="1" x="199"/>
+        <item t="data" sd="1" x="200"/>
+        <item t="data" sd="1" x="201"/>
+        <item t="data" sd="1" x="202"/>
+        <item t="data" sd="1" x="203"/>
+        <item t="data" sd="1" x="204"/>
+        <item t="data" sd="1" x="205"/>
+        <item t="data" sd="1" x="206"/>
+        <item t="data" sd="1" x="207"/>
+        <item t="data" sd="1" x="208"/>
+        <item t="data" sd="1" x="209"/>
+        <item t="data" sd="1" x="210"/>
+        <item t="data" sd="1" x="211"/>
+        <item t="data" sd="1" x="212"/>
+        <item t="data" sd="1" x="213"/>
+        <item t="data" sd="1" x="214"/>
+        <item t="data" sd="1" x="215"/>
+        <item t="data" sd="1" x="216"/>
+        <item t="data" sd="1" x="217"/>
+        <item t="data" sd="1" x="218"/>
+        <item t="data" sd="1" x="219"/>
+        <item t="data" sd="1" x="220"/>
+        <item t="data" sd="1" x="221"/>
+        <item t="data" sd="1" x="222"/>
+        <item t="data" sd="1" x="223"/>
+        <item t="data" sd="1" x="224"/>
+        <item t="data" sd="1" x="225"/>
+        <item t="data" sd="1" x="226"/>
+        <item t="data" sd="1" x="227"/>
+        <item t="data" sd="1" x="228"/>
+        <item t="data" sd="1" x="229"/>
+        <item t="data" sd="1" x="230"/>
+        <item t="data" sd="1" x="231"/>
+        <item t="data" sd="1" x="232"/>
+        <item t="data" sd="1" x="233"/>
+        <item t="data" sd="1" x="234"/>
+        <item t="data" sd="1" x="235"/>
+        <item t="data" sd="1" x="236"/>
+        <item t="data" sd="1" x="237"/>
+        <item t="data" sd="1" x="238"/>
+        <item t="data" sd="1" x="239"/>
+        <item t="data" sd="1" x="240"/>
+        <item t="data" sd="1" x="241"/>
+        <item t="data" sd="1" x="242"/>
+        <item t="data" sd="1" x="243"/>
+        <item t="data" sd="1" x="244"/>
+        <item t="data" sd="1" x="245"/>
+        <item t="data" sd="1" x="246"/>
+        <item t="data" sd="1" x="247"/>
+        <item t="data" sd="1" x="248"/>
+        <item t="data" sd="1" x="249"/>
+        <item t="data" sd="1" x="250"/>
+        <item t="data" sd="1" x="251"/>
+        <item t="data" sd="1" x="252"/>
+        <item t="data" sd="1" x="253"/>
+        <item t="data" sd="1" x="254"/>
+        <item t="data" sd="1" x="255"/>
+        <item t="data" sd="1" x="256"/>
+        <item t="data" sd="1" x="257"/>
+        <item t="data" sd="1" x="258"/>
+        <item t="data" sd="1" x="259"/>
+        <item t="data" sd="1" x="260"/>
+        <item t="data" sd="1" x="261"/>
+        <item t="data" sd="1" x="262"/>
+        <item t="data" sd="1" x="263"/>
+        <item t="data" sd="1" x="264"/>
+        <item t="data" sd="1" x="265"/>
+        <item t="data" sd="1" x="266"/>
+        <item t="data" sd="1" x="267"/>
+        <item t="data" sd="1" x="268"/>
+        <item t="data" sd="1" x="269"/>
+        <item t="data" sd="1" x="270"/>
+        <item t="data" sd="1" x="271"/>
+        <item t="data" sd="1" x="272"/>
+        <item t="data" sd="1" x="273"/>
+        <item t="data" sd="1" x="274"/>
+        <item t="data" sd="1" x="275"/>
+        <item t="data" sd="1" x="276"/>
+        <item t="data" sd="1" x="277"/>
+        <item t="data" sd="1" x="278"/>
+        <item t="data" sd="1" x="279"/>
+        <item t="data" sd="1" x="280"/>
+        <item t="data" sd="1" x="281"/>
+        <item t="data" sd="1" x="282"/>
+        <item t="data" sd="1" x="283"/>
+        <item t="data" sd="1" x="284"/>
+        <item t="data" sd="1" x="285"/>
+        <item t="data" sd="1" x="286"/>
+        <item t="data" sd="1" x="287"/>
+        <item t="data" sd="1" x="288"/>
+        <item t="data" sd="1" x="289"/>
+        <item t="data" sd="1" x="290"/>
+        <item t="data" sd="1" x="291"/>
+        <item t="data" sd="1" x="292"/>
+        <item t="data" sd="1" x="293"/>
+        <item t="data" sd="1" x="294"/>
+        <item t="data" sd="1" x="295"/>
+        <item t="data" sd="1" x="296"/>
+        <item t="data" sd="1" x="297"/>
+        <item t="data" sd="1" x="298"/>
+        <item t="data" sd="1" x="299"/>
+        <item t="data" sd="1" x="300"/>
+        <item t="data" sd="1" x="301"/>
+        <item t="data" sd="1" x="302"/>
+        <item t="data" sd="1" x="303"/>
+        <item t="data" sd="1" x="304"/>
+        <item t="data" sd="1" x="305"/>
+        <item t="data" sd="1" x="306"/>
+        <item t="data" sd="1" x="307"/>
+        <item t="data" sd="1" x="308"/>
+        <item t="data" sd="1" x="309"/>
+        <item t="data" sd="1" x="310"/>
+        <item t="data" sd="1" x="311"/>
+        <item t="data" sd="1" x="312"/>
+        <item t="data" sd="1" x="313"/>
+        <item t="data" sd="1" x="314"/>
+        <item t="data" sd="1" x="315"/>
+        <item t="data" sd="1" x="316"/>
+        <item t="data" sd="1" x="317"/>
+        <item t="data" sd="1" x="318"/>
+        <item t="data" sd="1" x="319"/>
+        <item t="data" sd="1" x="320"/>
+        <item t="data" sd="1" x="321"/>
+        <item t="data" sd="1" x="322"/>
+        <item t="data" sd="1" x="323"/>
+        <item t="data" sd="1" x="324"/>
+        <item t="data" sd="1" x="325"/>
+        <item t="data" sd="1" x="326"/>
+        <item t="data" sd="1" x="327"/>
+        <item t="data" sd="1" x="328"/>
+        <item t="data" sd="1" x="329"/>
+        <item t="data" sd="1" x="330"/>
+        <item t="data" sd="1" x="331"/>
+        <item t="data" sd="1" x="332"/>
+        <item t="data" sd="1" x="333"/>
+        <item t="data" sd="1" x="334"/>
+        <item t="data" sd="1" x="335"/>
+        <item t="data" sd="1" x="336"/>
+        <item t="data" sd="1" x="337"/>
+        <item t="data" sd="1" x="338"/>
+        <item t="data" sd="1" x="339"/>
+        <item t="data" sd="1" x="340"/>
+        <item t="data" sd="1" x="341"/>
+        <item t="data" sd="1" x="342"/>
+        <item t="data" sd="1" x="343"/>
+        <item t="data" sd="1" x="344"/>
+        <item t="data" sd="1" x="345"/>
+        <item t="data" sd="1" x="346"/>
+        <item t="data" sd="1" x="347"/>
+        <item t="data" sd="1" x="348"/>
+        <item t="data" sd="1" x="349"/>
+        <item t="data" sd="1" x="350"/>
+        <item t="data" sd="1" x="351"/>
+        <item t="data" sd="1" x="352"/>
+        <item t="data" sd="1" x="353"/>
+        <item t="data" sd="1" x="354"/>
+        <item t="data" sd="1" x="355"/>
+        <item t="data" sd="1" x="356"/>
+        <item t="data" sd="1" x="357"/>
+        <item t="data" sd="1" x="358"/>
+        <item t="data" sd="1" x="359"/>
+        <item t="data" sd="1" x="360"/>
+        <item t="data" sd="1" x="361"/>
+        <item t="data" sd="1" x="362"/>
+        <item t="data" sd="1" x="363"/>
+        <item t="data" sd="1" x="364"/>
+        <item t="data" sd="1" x="365"/>
+        <item t="data" sd="1" x="366"/>
+        <item t="data" sd="1" x="367"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="4">
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="0">
+      <items count="14">
+        <item t="data" sd="0" x="0"/>
+        <item t="data" sd="0" x="1"/>
+        <item t="data" sd="0" x="2"/>
+        <item t="data" sd="0" x="3"/>
+        <item t="data" sd="0" x="4"/>
+        <item t="data" sd="0" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="0" x="8"/>
+        <item t="data" sd="0" x="9"/>
+        <item t="data" sd="0" x="10"/>
+        <item t="data" sd="0" x="11"/>
+        <item t="data" sd="0" x="12"/>
+        <item t="data" sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i t="data" r="0" i="0">
+      <x v="179"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="180"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="181"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i t="data" r="0" i="0"/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Value" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="12">
+    <format action="formatting" dxfId="205">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="204">
+      <pivotArea type="normal" dataOnly="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="203">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="202">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="201">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="200">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="199">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="198">
+      <pivotArea type="normal" dataOnly="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="197">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="196">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="195">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format action="formatting" dxfId="194">
+      <pivotArea type="normal" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="3" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="All" displayName="All" ref="A1:F10" headerRowCount="1" totalsRowShown="0" headerRowDxfId="206">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Date" dataDxfId="193"/>
+    <tableColumn id="2" name="Server Name"/>
+    <tableColumn id="3" name="Server ID"/>
+    <tableColumn id="4" name="Value"/>
+    <tableColumn id="5" name="&quot;GM&quot; Amount"/>
+    <tableColumn id="6" name="Members Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,46 +2816,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col width="19.7109375" customWidth="1" style="4" min="1" max="1"/>
+    <col width="24.42578125" customWidth="1" style="10" min="2" max="2"/>
+    <col width="24" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" style="10" min="4" max="4"/>
+    <col width="17.140625" customWidth="1" style="10" min="5" max="5"/>
+    <col width="19.140625" customWidth="1" style="10" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="10" min="7" max="20"/>
+    <col width="9.140625" customWidth="1" style="10" min="21" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Server Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Server ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>"GM" Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Members Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>прошмандовки ithub</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>750342355499876352</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4353</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cybercat's playground</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>592958636087836672</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2П1.20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>750431597349830656</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>прошмандовки ithub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>750342355499876352</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cybercat's playground</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>592958636087836672</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2П1.20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>750431597349830656</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>прошмандовки ithub</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>750342355499876352</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cybercat's playground</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>592958636087836672</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2П1.20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>750431597349830656</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.5703125" customWidth="1" style="5" min="2" max="2"/>
+    <col width="25" customWidth="1" style="5" min="3" max="3"/>
+    <col width="22.7109375" customWidth="1" style="5" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Server Name</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>cybercat's playground</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="n"/>
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Названия строк</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Сумма по полю Value</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>27.июн</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="D5" s="10" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>28.июн</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="10" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>29.июн</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Общий итог</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D8" s="10" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="10" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="10" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>